--- a/References.xlsx
+++ b/References.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
   <si>
     <t>Item</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>http://free3dmodelsstock.com/professional-speaker</t>
+  </si>
+  <si>
+    <t>organized in maya</t>
   </si>
 </sst>
 </file>
@@ -444,8 +447,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N42" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:N42"/>
-  <sortState ref="A2:I42">
-    <sortCondition ref="D1:D42"/>
+  <sortState ref="A2:N42">
+    <sortCondition ref="C1:C42"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="Status" dataDxfId="1"/>
@@ -732,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,11 +744,13 @@
     <col min="1" max="1" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
-    <col min="5" max="6" width="5.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="89.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -796,11 +801,11 @@
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -809,128 +814,128 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>29</v>
+      <c r="B7" s="3">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -939,91 +944,88 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1031,103 +1033,103 @@
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>2</v>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>41</v>
+      <c r="H13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1138,22 +1140,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1164,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1176,65 +1178,62 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
+      <c r="B17" s="3">
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F17">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1245,71 +1244,71 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
+      <c r="B20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>30</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s">
         <v>40</v>
@@ -1323,19 +1322,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
         <v>40</v>
@@ -1343,106 +1342,109 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F23">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F24">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
+      <c r="B26" s="3">
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1453,129 +1455,126 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F28">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F29">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I29" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E30">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>78</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G31" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1586,123 +1585,132 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>200</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
       </c>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F34">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35">
-        <v>12</v>
-      </c>
       <c r="E35">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>29</v>
+      <c r="B36" s="3">
+        <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -1710,13 +1718,13 @@
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1725,88 +1733,88 @@
         <v>40</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>29</v>
+      <c r="B38" s="3">
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F38">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
         <v>20</v>
       </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39">
-        <v>15</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
       <c r="F39">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D40">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
@@ -1821,7 +1829,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H40" r:id="rId1"/>
+    <hyperlink ref="H32" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/References.xlsx
+++ b/References.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>Item</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>http://free3dmodelsstock.com/professional-speaker</t>
-  </si>
-  <si>
-    <t>organized in maya</t>
   </si>
 </sst>
 </file>
@@ -447,8 +444,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N42" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:N42"/>
-  <sortState ref="A2:N42">
-    <sortCondition ref="C1:C42"/>
+  <sortState ref="A2:I42">
+    <sortCondition ref="D1:D42"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="Status" dataDxfId="1"/>
@@ -735,25 +732,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="89.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="62" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -797,15 +792,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
+      <c r="B2" s="3">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -814,128 +809,128 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
       <c r="F6">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -944,221 +939,224 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
+      <c r="B10" s="3">
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
+      <c r="B12" s="3">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
       </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14">
+        <v>120</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>150</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
       <c r="H15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1178,65 +1176,68 @@
         <v>50</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>30</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
         <v>68</v>
       </c>
-      <c r="H16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17">
-        <v>400</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>10</v>
       </c>
@@ -1244,77 +1245,77 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F19">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>29</v>
+      <c r="B20" s="3">
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E20">
         <v>30</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
+      <c r="B21" s="3">
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>10</v>
       </c>
@@ -1322,395 +1323,386 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>60</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>250</v>
       </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="G24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>400</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <v>400</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+      <c r="F30">
+        <v>400</v>
+      </c>
+      <c r="G30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="3">
         <v>2</v>
       </c>
-      <c r="E23">
-        <v>120</v>
-      </c>
-      <c r="F23">
-        <v>400</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>120</v>
-      </c>
-      <c r="F24">
-        <v>400</v>
-      </c>
-      <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>120</v>
-      </c>
-      <c r="F25">
-        <v>400</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="D26">
+      <c r="D35">
         <v>12</v>
       </c>
-      <c r="E26">
+      <c r="E35">
         <v>15</v>
       </c>
-      <c r="F26">
-        <v>30</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>60</v>
-      </c>
-      <c r="F27">
-        <v>400</v>
-      </c>
-      <c r="G27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>30</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="F35">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>30</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30">
-        <v>30</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36">
         <v>12</v>
       </c>
-      <c r="D31">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>120</v>
-      </c>
-      <c r="F31">
-        <v>400</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32">
+      <c r="E36">
         <v>15</v>
       </c>
-      <c r="E32">
-        <v>30</v>
-      </c>
-      <c r="F32">
-        <v>200</v>
-      </c>
-      <c r="G32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>40</v>
-      </c>
-      <c r="F33">
-        <v>250</v>
-      </c>
-      <c r="G33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>40</v>
-      </c>
-      <c r="F34">
-        <v>50</v>
-      </c>
-      <c r="G34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35">
-        <v>50</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>40</v>
-      </c>
       <c r="F36">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>10</v>
       </c>
@@ -1718,13 +1710,13 @@
         <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>12</v>
       </c>
       <c r="E37">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1733,36 +1725,36 @@
         <v>40</v>
       </c>
       <c r="H37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>30</v>
-      </c>
-      <c r="F38">
-        <v>300</v>
-      </c>
-      <c r="G38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>10</v>
       </c>
@@ -1770,51 +1762,51 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F39">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="G39" t="s">
         <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
@@ -1829,7 +1821,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H32" r:id="rId1"/>
+    <hyperlink ref="H40" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/References.xlsx
+++ b/References.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
   <si>
     <t>Item</t>
   </si>
@@ -122,9 +122,6 @@
     <t>pokeballs</t>
   </si>
   <si>
-    <t>cpus</t>
-  </si>
-  <si>
     <t>handrail</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>www.123dapp.com/123c-3D-Model/Computer-CPU-Case/593445</t>
-  </si>
-  <si>
     <t>www.cadnav.com/3d-models/model-23533.html</t>
   </si>
   <si>
@@ -300,6 +294,9 @@
   </si>
   <si>
     <t>doctor_pc</t>
+  </si>
+  <si>
+    <t>retangular lights</t>
   </si>
 </sst>
 </file>
@@ -387,10 +384,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -466,20 +463,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O46" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O46" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:O46"/>
   <sortState ref="A2:O46">
     <sortCondition ref="C1:C46"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Status" dataDxfId="7"/>
-    <tableColumn id="2" name="Floor" dataDxfId="6"/>
-    <tableColumn id="16" name="Proxy" dataDxfId="0"/>
+    <tableColumn id="1" name="Status" dataDxfId="6"/>
+    <tableColumn id="2" name="Floor" dataDxfId="5"/>
+    <tableColumn id="16" name="Proxy" dataDxfId="4"/>
     <tableColumn id="3" name="Item"/>
-    <tableColumn id="4" name="Priority" dataDxfId="5"/>
-    <tableColumn id="15" name="Week" dataDxfId="4"/>
-    <tableColumn id="8" name="Time to spend" dataDxfId="3"/>
-    <tableColumn id="5" name="Poly " dataDxfId="2"/>
+    <tableColumn id="4" name="Priority" dataDxfId="3"/>
+    <tableColumn id="15" name="Week" dataDxfId="2"/>
+    <tableColumn id="8" name="Time to spend" dataDxfId="1"/>
+    <tableColumn id="5" name="Poly " dataDxfId="0"/>
     <tableColumn id="6" name="Texture"/>
     <tableColumn id="7" name="Model"/>
     <tableColumn id="9" name="References"/>
@@ -757,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,29 +774,29 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
@@ -807,19 +804,19 @@
         <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -830,7 +827,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -848,10 +845,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -862,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -880,10 +877,10 @@
         <v>200</v>
       </c>
       <c r="I3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -912,10 +909,10 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -926,10 +923,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -944,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -958,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -976,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -990,7 +987,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1008,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1022,10 +1019,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -1048,7 +1045,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -1066,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1080,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
         <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -1098,13 +1095,13 @@
         <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1115,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1133,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1147,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1165,10 +1162,10 @@
         <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1179,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1197,10 +1194,10 @@
         <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1211,7 +1208,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1229,10 +1226,10 @@
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1243,7 +1240,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -1261,10 +1258,10 @@
         <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1275,7 +1272,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1293,10 +1290,10 @@
         <v>20</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1307,7 +1304,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -1325,24 +1322,24 @@
         <v>250</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -1357,24 +1354,24 @@
         <v>400</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -1389,24 +1386,24 @@
         <v>400</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1421,10 +1418,10 @@
         <v>400</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1435,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1453,21 +1450,21 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1485,10 +1482,10 @@
         <v>400</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1499,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -1517,10 +1514,10 @@
         <v>250</v>
       </c>
       <c r="I23" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" t="s">
         <v>69</v>
-      </c>
-      <c r="J23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1531,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
@@ -1549,10 +1546,10 @@
         <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1563,7 +1560,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
@@ -1581,10 +1578,10 @@
         <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1595,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>23</v>
@@ -1613,10 +1610,10 @@
         <v>1000</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1627,10 +1624,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1645,10 +1642,10 @@
         <v>50</v>
       </c>
       <c r="I27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1659,7 +1656,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -1677,10 +1674,10 @@
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1691,7 +1688,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1709,10 +1706,10 @@
         <v>200</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1720,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
@@ -1741,10 +1738,10 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1755,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
@@ -1773,10 +1770,10 @@
         <v>400</v>
       </c>
       <c r="I31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1787,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" t="s">
         <v>14</v>
@@ -1805,10 +1802,10 @@
         <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1819,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -1837,10 +1834,10 @@
         <v>300</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1866,97 +1863,100 @@
         <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>28</v>
+      <c r="B35" s="1">
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H35" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I35" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H36" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="1">
         <v>30</v>
       </c>
       <c r="H37" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I37" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1964,48 +1964,51 @@
         <v>10</v>
       </c>
       <c r="B38" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E38" s="1">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
         <v>15</v>
       </c>
-      <c r="F38" s="1">
-        <v>4</v>
-      </c>
-      <c r="G38" s="1">
-        <v>30</v>
-      </c>
       <c r="H38" s="1">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E39" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F39" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="H39" s="1">
         <v>400</v>
@@ -2014,56 +2017,59 @@
         <v>38</v>
       </c>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="K39" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E40" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1">
         <v>4</v>
       </c>
       <c r="G40" s="1">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="H40" s="1">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1">
-        <v>2</v>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
         <v>15</v>
@@ -2072,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2085,6 +2091,9 @@
       <c r="B42" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
@@ -2101,10 +2110,10 @@
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2115,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1">
         <v>15</v>
@@ -2130,10 +2139,10 @@
         <v>200</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2159,23 +2168,23 @@
         <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" s="1">
         <f>SUM(G2:G46)/60</f>
-        <v>30.333333333333332</v>
+        <v>30.083333333333332</v>
       </c>
       <c r="H50" s="1">
         <f>SUM(H2:H46)</f>
-        <v>6421</v>
+        <v>6401</v>
       </c>
     </row>
   </sheetData>

--- a/References.xlsx
+++ b/References.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="91">
   <si>
     <t>Item</t>
   </si>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,60 +1847,66 @@
       <c r="B34" s="1">
         <v>1</v>
       </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1">
         <v>4</v>
       </c>
-      <c r="F34" s="1">
-        <v>3</v>
-      </c>
       <c r="G34" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="H34" s="1">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="I34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E35" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F35" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H35" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="J35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>2</v>
@@ -1909,71 +1915,77 @@
         <v>83</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H36" s="1">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F37" s="1">
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="H37" s="1">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="I37" t="s">
         <v>38</v>
       </c>
       <c r="J37" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="K37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="1">
-        <v>2</v>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
@@ -1982,45 +1994,45 @@
         <v>15</v>
       </c>
       <c r="H38" s="1">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="I38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J38" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E39" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2028,92 +2040,86 @@
         <v>10</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="H40" s="1">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>83</v>
+      <c r="B41" s="1">
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E41" s="1">
+        <v>15</v>
+      </c>
+      <c r="F41" s="1">
         <v>4</v>
       </c>
-      <c r="F41" s="1">
-        <v>3</v>
-      </c>
       <c r="G41" s="1">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H41" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="I41" t="s">
         <v>38</v>
       </c>
       <c r="J41" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>83</v>
+      <c r="B42" s="1">
+        <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1">
         <v>4</v>
       </c>
-      <c r="F42" s="1">
-        <v>3</v>
-      </c>
       <c r="G42" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="H42" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2123,6 +2129,9 @@
       <c r="B43" s="1">
         <v>1</v>
       </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D43" t="s">
         <v>78</v>
       </c>
@@ -2151,6 +2160,9 @@
       </c>
       <c r="B44" s="1">
         <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
